--- a/data/experience.xlsx
+++ b/data/experience.xlsx
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE00</t>
+          <t>MASTERSDEGREE00</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE02</t>
+          <t>MASTERSDEGREE02</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE18</t>
+          <t>MASTERSDEGREE18</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE05</t>
+          <t>MASTERSDEGREE05</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE015</t>
+          <t>MASTERSDEGREE015</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE55</t>
+          <t>MASTERSDEGREE55</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE01</t>
+          <t>MASTERSDEGREE01</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE37</t>
+          <t>MASTERSDEGREE37</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE07</t>
+          <t>MASTERSDEGREE07</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE08</t>
+          <t>MASTERSDEGREE08</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE44</t>
+          <t>MASTERSDEGREE44</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE625</t>
+          <t>MASTERSDEGREE625</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE225</t>
+          <t>MASTERSDEGREE225</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE417</t>
+          <t>MASTERSDEGREE417</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE319</t>
+          <t>MASTERSDEGREE319</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE39</t>
+          <t>MASTERSDEGREE39</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE03</t>
+          <t>MASTERSDEGREE03</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE33</t>
+          <t>MASTERSDEGREE33</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE23</t>
+          <t>MASTERSDEGREE23</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE26</t>
+          <t>MASTERSDEGREE26</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE110</t>
+          <t>MASTERSDEGREE110</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE120</t>
+          <t>MASTERSDEGREE120</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE815</t>
+          <t>MASTERSDEGREE815</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE312</t>
+          <t>MASTERSDEGREE312</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE09</t>
+          <t>MASTERSDEGREE09</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE515</t>
+          <t>MASTERSDEGREE515</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1212</t>
+          <t>MASTERSDEGREE1212</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1319</t>
+          <t>MASTERSDEGREE1319</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE520</t>
+          <t>MASTERSDEGREE520</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE421</t>
+          <t>MASTERSDEGREE421</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE010</t>
+          <t>MASTERSDEGREE010</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE310</t>
+          <t>MASTERSDEGREE310</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE113</t>
+          <t>MASTERSDEGREE113</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE06</t>
+          <t>MASTERSDEGREE06</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE415</t>
+          <t>MASTERSDEGREE415</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE11</t>
+          <t>MASTERSDEGREE11</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE17</t>
+          <t>MASTERSDEGREE17</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE12</t>
+          <t>MASTERSDEGREE12</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1010</t>
+          <t>MASTERSDEGREE1010</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE12</t>
+          <t>BACHELORSDEGREE12</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE25</t>
+          <t>MASTERSDEGREE25</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1111</t>
+          <t>MASTERSDEGREE1111</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE24</t>
+          <t>MASTERSDEGREE24</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE212</t>
+          <t>MASTERSDEGREE212</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE510</t>
+          <t>MASTERSDEGREE510</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -10282,7 +10282,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE28</t>
+          <t>MASTERSDEGREE28</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE45</t>
+          <t>MASTERSDEGREE45</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE41</t>
+          <t>MASTERSDEGREE41</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE420</t>
+          <t>MASTERSDEGREE420</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE38</t>
+          <t>MASTERSDEGREE38</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE114</t>
+          <t>MASTERSDEGREE114</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE15</t>
+          <t>MASTERSDEGREE15</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1019</t>
+          <t>MASTERSDEGREE1019</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE53</t>
+          <t>MASTERSDEGREE53</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE35</t>
+          <t>MASTERSDEGREE35</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE414</t>
+          <t>MASTERSDEGREE414</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE10</t>
+          <t>MASTERSDEGREE10</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE22</t>
+          <t>MASTERSDEGREE22</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE111</t>
+          <t>MASTERSDEGREE111</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE04</t>
+          <t>MASTERSDEGREE04</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE13</t>
+          <t>MASTERSDEGREE13</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE410</t>
+          <t>MASTERSDEGREE410</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE34</t>
+          <t>MASTERSDEGREE34</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE611</t>
+          <t>MASTERSDEGREE611</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE46</t>
+          <t>MASTERSDEGREE46</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE511</t>
+          <t>MASTERSDEGREE511</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE214</t>
+          <t>MASTERSDEGREE214</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE213</t>
+          <t>MASTERSDEGREE213</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE514</t>
+          <t>MASTERSDEGREE514</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE36</t>
+          <t>MASTERSDEGREE36</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE66</t>
+          <t>MASTERSDEGREE66</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE112</t>
+          <t>MASTERSDEGREE112</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE68</t>
+          <t>MASTERSDEGREE68</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE012</t>
+          <t>MASTERSDEGREE012</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE013</t>
+          <t>MASTERSDEGREE013</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1115</t>
+          <t>MASTERSDEGREE1115</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1020</t>
+          <t>MASTERSDEGREE1020</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE57</t>
+          <t>MASTERSDEGREE57</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE16</t>
+          <t>MASTERSDEGREE16</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE115</t>
+          <t>MASTERSDEGREE115</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE313</t>
+          <t>MASTERSDEGREE313</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE512</t>
+          <t>MASTERSDEGREE512</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE59</t>
+          <t>MASTERSDEGREE59</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE48</t>
+          <t>MASTERSDEGREE48</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE211</t>
+          <t>MASTERSDEGREE211</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE77</t>
+          <t>MASTERSDEGREE77</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE14</t>
+          <t>MASTERSDEGREE14</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE418</t>
+          <t>MASTERSDEGREE418</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE78</t>
+          <t>MASTERSDEGREE78</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE69</t>
+          <t>MASTERSDEGREE69</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE920</t>
+          <t>MASTERSDEGREE920</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE121</t>
+          <t>MASTERSDEGREE121</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE00</t>
+          <t>BACHELORSDEGREE00</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1515</t>
+          <t>MASTERSDEGREE1515</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE412</t>
+          <t>MASTERSDEGREE412</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE217</t>
+          <t>MASTERSDEGREE217</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE79</t>
+          <t>MASTERSDEGREE79</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE311</t>
+          <t>MASTERSDEGREE311</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE710</t>
+          <t>MASTERSDEGREE710</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE210</t>
+          <t>MASTERSDEGREE210</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE011</t>
+          <t>MASTERSDEGREE011</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE27</t>
+          <t>MASTERSDEGREE27</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE623</t>
+          <t>MASTERSDEGREE623</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE014</t>
+          <t>MASTERSDEGREE014</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE92</t>
+          <t>MASTERSDEGREE92</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1015</t>
+          <t>MASTERSDEGREE1015</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE64</t>
+          <t>MASTERSDEGREE64</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE822</t>
+          <t>MASTERSDEGREE822</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE621</t>
+          <t>MASTERSDEGREE621</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE220</t>
+          <t>MASTERSDEGREE220</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1315</t>
+          <t>MASTERSDEGREE1315</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE56</t>
+          <t>MASTERSDEGREE56</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE88</t>
+          <t>MASTERSDEGREE88</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE610</t>
+          <t>MASTERSDEGREE610</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE416</t>
+          <t>MASTERSDEGREE416</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE52</t>
+          <t>MASTERSDEGREE52</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE315</t>
+          <t>MASTERSDEGREE315</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1120</t>
+          <t>MASTERSDEGREE1120</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE97</t>
+          <t>MASTERSDEGREE97</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1018</t>
+          <t>MASTERSDEGREE1018</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE47</t>
+          <t>MASTERSDEGREE47</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE615</t>
+          <t>MASTERSDEGREE615</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE218</t>
+          <t>MASTERSDEGREE218</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE016</t>
+          <t>MASTERSDEGREE016</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1420</t>
+          <t>MASTERSDEGREE1420</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE714</t>
+          <t>MASTERSDEGREE714</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE811</t>
+          <t>MASTERSDEGREE811</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE04</t>
+          <t>BACHELORSDEGREE04</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE513</t>
+          <t>MASTERSDEGREE513</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE67</t>
+          <t>MASTERSDEGREE67</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -12739,7 +12739,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE020</t>
+          <t>MASTERSDEGREE020</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE812</t>
+          <t>MASTERSDEGREE812</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE95</t>
+          <t>MASTERSDEGREE95</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1414</t>
+          <t>MASTERSDEGREE1414</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1014</t>
+          <t>MASTERSDEGREE1014</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE612</t>
+          <t>MASTERSDEGREE612</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE411</t>
+          <t>MASTERSDEGREE411</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE021</t>
+          <t>MASTERSDEGREE021</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE717</t>
+          <t>MASTERSDEGREE717</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE215</t>
+          <t>MASTERSDEGREE215</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE017</t>
+          <t>MASTERSDEGREE017</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE117</t>
+          <t>MASTERSDEGREE117</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1928</t>
+          <t>MASTERSDEGREE1928</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE58</t>
+          <t>MASTERSDEGREE58</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE314</t>
+          <t>MASTERSDEGREE314</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE123</t>
+          <t>MASTERSDEGREE123</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE323</t>
+          <t>MASTERSDEGREE323</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE819</t>
+          <t>MASTERSDEGREE819</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE29</t>
+          <t>MASTERSDEGREE29</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE119</t>
+          <t>MASTERSDEGREE119</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -13327,7 +13327,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE711</t>
+          <t>MASTERSDEGREE711</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE216</t>
+          <t>MASTERSDEGREE216</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE923</t>
+          <t>MASTERSDEGREE923</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE33</t>
+          <t>BACHELORSDEGREE33</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE713</t>
+          <t>MASTERSDEGREE713</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE316</t>
+          <t>MASTERSDEGREE316</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE116</t>
+          <t>MASTERSDEGREE116</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE018</t>
+          <t>MASTERSDEGREE018</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1011</t>
+          <t>MASTERSDEGREE1011</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE818</t>
+          <t>MASTERSDEGREE818</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE715</t>
+          <t>MASTERSDEGREE715</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE19</t>
+          <t>MASTERSDEGREE19</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1119</t>
+          <t>MASTERSDEGREE1119</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE99</t>
+          <t>MASTERSDEGREE99</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1016</t>
+          <t>MASTERSDEGREE1016</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE816</t>
+          <t>MASTERSDEGREE816</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE118</t>
+          <t>MASTERSDEGREE118</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2023</t>
+          <t>MASTERSDEGREE2023</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1215</t>
+          <t>MASTERSDEGREE1215</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1519</t>
+          <t>MASTERSDEGREE1519</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -14062,7 +14062,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE517</t>
+          <t>MASTERSDEGREE517</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1424</t>
+          <t>MASTERSDEGREE1424</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1825</t>
+          <t>MASTERSDEGREE1825</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE226</t>
+          <t>MASTERSDEGREE226</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE830</t>
+          <t>MASTERSDEGREE830</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE019</t>
+          <t>MASTERSDEGREE019</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE530</t>
+          <t>MASTERSDEGREE530</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE49</t>
+          <t>MASTERSDEGREE49</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE912</t>
+          <t>MASTERSDEGREE912</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE910</t>
+          <t>MASTERSDEGREE910</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE419</t>
+          <t>MASTERSDEGREE419</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE919</t>
+          <t>MASTERSDEGREE919</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE810</t>
+          <t>MASTERSDEGREE810</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE814</t>
+          <t>MASTERSDEGREE814</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE222</t>
+          <t>MASTERSDEGREE222</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1423</t>
+          <t>MASTERSDEGREE1423</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1535</t>
+          <t>MASTERSDEGREE1535</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE413</t>
+          <t>MASTERSDEGREE413</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2020</t>
+          <t>MASTERSDEGREE2020</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE321</t>
+          <t>MASTERSDEGREE321</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1530</t>
+          <t>MASTERSDEGREE1530</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE322</t>
+          <t>MASTERSDEGREE322</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE317</t>
+          <t>MASTERSDEGREE317</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE518</t>
+          <t>MASTERSDEGREE518</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1718</t>
+          <t>MASTERSDEGREE1718</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2626</t>
+          <t>MASTERSDEGREE2626</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE620</t>
+          <t>MASTERSDEGREE620</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE722</t>
+          <t>MASTERSDEGREE722</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2024</t>
+          <t>MASTERSDEGREE2024</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE820</t>
+          <t>MASTERSDEGREE820</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE20</t>
+          <t>MASTERSDEGREE20</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE31</t>
+          <t>MASTERSDEGREE31</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE153</t>
+          <t>MASTERSDEGREE153</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2222</t>
+          <t>MASTERSDEGREE2222</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1025</t>
+          <t>MASTERSDEGREE1025</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE32</t>
+          <t>MASTERSDEGREE32</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1114</t>
+          <t>MASTERSDEGREE1114</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE618</t>
+          <t>MASTERSDEGREE618</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE324</t>
+          <t>MASTERSDEGREE324</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1616</t>
+          <t>MASTERSDEGREE1616</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -15280,7 +15280,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE720</t>
+          <t>MASTERSDEGREE720</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE318</t>
+          <t>MASTERSDEGREE318</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1321</t>
+          <t>MASTERSDEGREE1321</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1118</t>
+          <t>MASTERSDEGREE1118</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -15406,7 +15406,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2025</t>
+          <t>MASTERSDEGREE2025</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1525</t>
+          <t>MASTERSDEGREE1525</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1013</t>
+          <t>MASTERSDEGREE1013</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1214</t>
+          <t>MASTERSDEGREE1214</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE619</t>
+          <t>MASTERSDEGREE619</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE613</t>
+          <t>MASTERSDEGREE613</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1017</t>
+          <t>MASTERSDEGREE1017</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1418</t>
+          <t>MASTERSDEGREE1418</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1325</t>
+          <t>MASTERSDEGREE1325</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE320</t>
+          <t>MASTERSDEGREE320</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE916</t>
+          <t>MASTERSDEGREE916</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE915</t>
+          <t>MASTERSDEGREE915</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1318</t>
+          <t>MASTERSDEGREE1318</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE614</t>
+          <t>MASTERSDEGREE614</t>
         </is>
       </c>
       <c r="C739" t="n">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1213</t>
+          <t>MASTERSDEGREE1213</t>
         </is>
       </c>
       <c r="C742" t="n">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE89</t>
+          <t>MASTERSDEGREE89</t>
         </is>
       </c>
       <c r="C744" t="n">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE617</t>
+          <t>BACHELORSDEGREE617</t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE108</t>
+          <t>MASTERSDEGREE108</t>
         </is>
       </c>
       <c r="C746" t="n">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE516</t>
+          <t>MASTERSDEGREE516</t>
         </is>
       </c>
       <c r="C749" t="n">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE813</t>
+          <t>MASTERSDEGREE813</t>
         </is>
       </c>
       <c r="C751" t="n">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE132</t>
+          <t>MASTERSDEGREE132</t>
         </is>
       </c>
       <c r="C752" t="n">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE231</t>
+          <t>MASTERSDEGREE231</t>
         </is>
       </c>
       <c r="C755" t="n">
@@ -16309,7 +16309,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1520</t>
+          <t>MASTERSDEGREE1520</t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE219</t>
+          <t>MASTERSDEGREE219</t>
         </is>
       </c>
       <c r="C759" t="n">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1217</t>
+          <t>MASTERSDEGREE1217</t>
         </is>
       </c>
       <c r="C761" t="n">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2323</t>
+          <t>MASTERSDEGREE2323</t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE98</t>
+          <t>MASTERSDEGREE98</t>
         </is>
       </c>
       <c r="C765" t="n">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE128</t>
+          <t>MASTERSDEGREE128</t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE718</t>
+          <t>MASTERSDEGREE718</t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE72</t>
+          <t>MASTERSDEGREE72</t>
         </is>
       </c>
       <c r="C772" t="n">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE719</t>
+          <t>MASTERSDEGREE719</t>
         </is>
       </c>
       <c r="C774" t="n">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1220</t>
+          <t>MASTERSDEGREE1220</t>
         </is>
       </c>
       <c r="C778" t="n">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1516</t>
+          <t>MASTERSDEGREE1516</t>
         </is>
       </c>
       <c r="C779" t="n">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2022</t>
+          <t>MASTERSDEGREE2022</t>
         </is>
       </c>
       <c r="C780" t="n">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1112</t>
+          <t>MASTERSDEGREE1112</t>
         </is>
       </c>
       <c r="C781" t="n">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE125</t>
+          <t>MASTERSDEGREE125</t>
         </is>
       </c>
       <c r="C782" t="n">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE22</t>
+          <t>BACHELORSDEGREE22</t>
         </is>
       </c>
       <c r="C786" t="n">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1316</t>
+          <t>MASTERSDEGREE1316</t>
         </is>
       </c>
       <c r="C788" t="n">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE21</t>
+          <t>MASTERSDEGREE21</t>
         </is>
       </c>
       <c r="C789" t="n">
@@ -17044,7 +17044,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1216</t>
+          <t>MASTERSDEGREE1216</t>
         </is>
       </c>
       <c r="C792" t="n">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1313</t>
+          <t>MASTERSDEGREE1313</t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE030</t>
+          <t>MASTERSDEGREE030</t>
         </is>
       </c>
       <c r="C795" t="n">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE712</t>
+          <t>MASTERSDEGREE712</t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -17170,7 +17170,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE024</t>
+          <t>MASTERSDEGREE024</t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE02</t>
+          <t>BACHELORSDEGREE02</t>
         </is>
       </c>
       <c r="C801" t="n">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1012</t>
+          <t>MASTERSDEGREE1012</t>
         </is>
       </c>
       <c r="C802" t="n">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1211</t>
+          <t>MASTERSDEGREE1211</t>
         </is>
       </c>
       <c r="C803" t="n">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE325</t>
+          <t>MASTERSDEGREE325</t>
         </is>
       </c>
       <c r="C804" t="n">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1921</t>
+          <t>MASTERSDEGREE1921</t>
         </is>
       </c>
       <c r="C806" t="n">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE127</t>
+          <t>MASTERSDEGREE127</t>
         </is>
       </c>
       <c r="C807" t="n">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE11</t>
+          <t>BACHELORSDEGREE11</t>
         </is>
       </c>
       <c r="C809" t="n">
@@ -17422,7 +17422,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE928</t>
+          <t>MASTERSDEGREE928</t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE126</t>
+          <t>MASTERSDEGREE126</t>
         </is>
       </c>
       <c r="C813" t="n">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2431</t>
+          <t>MASTERSDEGREE2431</t>
         </is>
       </c>
       <c r="C820" t="n">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE716</t>
+          <t>MASTERSDEGREE716</t>
         </is>
       </c>
       <c r="C821" t="n">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE025</t>
+          <t>MASTERSDEGREE025</t>
         </is>
       </c>
       <c r="C822" t="n">
@@ -17716,7 +17716,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1113</t>
+          <t>MASTERSDEGREE1113</t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE616</t>
+          <t>MASTERSDEGREE616</t>
         </is>
       </c>
       <c r="C825" t="n">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1518</t>
+          <t>MASTERSDEGREE1518</t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE914</t>
+          <t>MASTERSDEGREE914</t>
         </is>
       </c>
       <c r="C829" t="n">
@@ -17905,7 +17905,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE525</t>
+          <t>MASTERSDEGREE525</t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE524</t>
+          <t>MASTERSDEGREE524</t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -18010,7 +18010,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1022</t>
+          <t>MASTERSDEGREE1022</t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -18094,7 +18094,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1620</t>
+          <t>MASTERSDEGREE1620</t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -18157,7 +18157,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE131</t>
+          <t>MASTERSDEGREE131</t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1517</t>
+          <t>MASTERSDEGREE1517</t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1919</t>
+          <t>MASTERSDEGREE1919</t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE25</t>
+          <t>BACHELORSDEGREE25</t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -18325,7 +18325,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE423</t>
+          <t>MASTERSDEGREE423</t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -18430,7 +18430,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE918</t>
+          <t>MASTERSDEGREE918</t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE927</t>
+          <t>MASTERSDEGREE927</t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1725</t>
+          <t>MASTERSDEGREE1725</t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2121</t>
+          <t>MASTERSDEGREE2121</t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1830</t>
+          <t>MASTERSDEGREE1830</t>
         </is>
       </c>
       <c r="C865" t="n">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE911</t>
+          <t>MASTERSDEGREE911</t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -18724,7 +18724,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1324</t>
+          <t>MASTERSDEGREE1324</t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1314</t>
+          <t>MASTERSDEGREE1314</t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE617</t>
+          <t>MASTERSDEGREE617</t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE913</t>
+          <t>MASTERSDEGREE913</t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -18850,7 +18850,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1818</t>
+          <t>MASTERSDEGREE1818</t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1218</t>
+          <t>MASTERSDEGREE1218</t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -18913,7 +18913,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE824</t>
+          <t>MASTERSDEGREE824</t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -18976,7 +18976,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE23</t>
+          <t>BACHELORSDEGREE23</t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE66</t>
+          <t>BACHELORSDEGREE66</t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE05</t>
+          <t>BACHELORSDEGREE05</t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE315</t>
+          <t>BACHELORSDEGREE315</t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE719</t>
+          <t>BACHELORSDEGREE719</t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE49</t>
+          <t>BACHELORSDEGREE49</t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE24</t>
+          <t>BACHELORSDEGREE24</t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE01</t>
+          <t>BACHELORSDEGREE01</t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE210</t>
+          <t>BACHELORSDEGREE210</t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE012</t>
+          <t>BACHELORSDEGREE012</t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE215</t>
+          <t>BACHELORSDEGREE215</t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE110</t>
+          <t>BACHELORSDEGREE110</t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE017</t>
+          <t>BACHELORSDEGREE017</t>
         </is>
       </c>
       <c r="C897" t="n">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE010</t>
+          <t>BACHELORSDEGREE010</t>
         </is>
       </c>
       <c r="C899" t="n">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE815</t>
+          <t>BACHELORSDEGREE815</t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -19333,7 +19333,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE13</t>
+          <t>BACHELORSDEGREE13</t>
         </is>
       </c>
       <c r="C901" t="n">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE44</t>
+          <t>BACHELORSDEGREE44</t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -19375,7 +19375,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE115</t>
+          <t>BACHELORSDEGREE115</t>
         </is>
       </c>
       <c r="C903" t="n">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE316</t>
+          <t>BACHELORSDEGREE316</t>
         </is>
       </c>
       <c r="C904" t="n">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE88</t>
+          <t>BACHELORSDEGREE88</t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -19438,7 +19438,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE77</t>
+          <t>BACHELORSDEGREE77</t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1313</t>
+          <t>BACHELORSDEGREE1313</t>
         </is>
       </c>
       <c r="C907" t="n">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE522</t>
+          <t>MASTERSDEGREE522</t>
         </is>
       </c>
       <c r="C908" t="n">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE17</t>
+          <t>BACHELORSDEGREE17</t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -19522,7 +19522,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE03</t>
+          <t>BACHELORSDEGREE03</t>
         </is>
       </c>
       <c r="C910" t="n">
@@ -19543,7 +19543,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE711</t>
+          <t>BACHELORSDEGREE711</t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE610</t>
+          <t>BACHELORSDEGREE610</t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE025</t>
+          <t>BACHELORSDEGREE025</t>
         </is>
       </c>
       <c r="C913" t="n">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE26</t>
+          <t>BACHELORSDEGREE26</t>
         </is>
       </c>
       <c r="C914" t="n">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE710</t>
+          <t>BACHELORSDEGREE710</t>
         </is>
       </c>
       <c r="C915" t="n">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE211</t>
+          <t>BACHELORSDEGREE211</t>
         </is>
       </c>
       <c r="C918" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE412</t>
+          <t>BACHELORSDEGREE412</t>
         </is>
       </c>
       <c r="C919" t="n">
@@ -19732,7 +19732,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2020</t>
+          <t>BACHELORSDEGREE2020</t>
         </is>
       </c>
       <c r="C920" t="n">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE55</t>
+          <t>BACHELORSDEGREE55</t>
         </is>
       </c>
       <c r="C921" t="n">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE410</t>
+          <t>BACHELORSDEGREE410</t>
         </is>
       </c>
       <c r="C922" t="n">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE07</t>
+          <t>BACHELORSDEGREE07</t>
         </is>
       </c>
       <c r="C923" t="n">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE27</t>
+          <t>BACHELORSDEGREE27</t>
         </is>
       </c>
       <c r="C924" t="n">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE36</t>
+          <t>BACHELORSDEGREE36</t>
         </is>
       </c>
       <c r="C925" t="n">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE18</t>
+          <t>BACHELORSDEGREE18</t>
         </is>
       </c>
       <c r="C926" t="n">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE118</t>
+          <t>BACHELORSDEGREE118</t>
         </is>
       </c>
       <c r="C929" t="n">
@@ -19963,7 +19963,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE112</t>
+          <t>BACHELORSDEGREE112</t>
         </is>
       </c>
       <c r="C931" t="n">
@@ -19984,7 +19984,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE310</t>
+          <t>BACHELORSDEGREE310</t>
         </is>
       </c>
       <c r="C932" t="n">
@@ -20005,7 +20005,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE14</t>
+          <t>BACHELORSDEGREE14</t>
         </is>
       </c>
       <c r="C933" t="n">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE19</t>
+          <t>BACHELORSDEGREE19</t>
         </is>
       </c>
       <c r="C934" t="n">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE917</t>
+          <t>BACHELORSDEGREE917</t>
         </is>
       </c>
       <c r="C936" t="n">
@@ -20089,7 +20089,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE46</t>
+          <t>BACHELORSDEGREE46</t>
         </is>
       </c>
       <c r="C937" t="n">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE16</t>
+          <t>BACHELORSDEGREE16</t>
         </is>
       </c>
       <c r="C938" t="n">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE216</t>
+          <t>BACHELORSDEGREE216</t>
         </is>
       </c>
       <c r="C939" t="n">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE718</t>
+          <t>BACHELORSDEGREE718</t>
         </is>
       </c>
       <c r="C940" t="n">
@@ -20173,7 +20173,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE06</t>
+          <t>BACHELORSDEGREE06</t>
         </is>
       </c>
       <c r="C941" t="n">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE28</t>
+          <t>BACHELORSDEGREE28</t>
         </is>
       </c>
       <c r="C942" t="n">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE015</t>
+          <t>BACHELORSDEGREE015</t>
         </is>
       </c>
       <c r="C943" t="n">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE125</t>
+          <t>BACHELORSDEGREE125</t>
         </is>
       </c>
       <c r="C944" t="n">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE313</t>
+          <t>BACHELORSDEGREE313</t>
         </is>
       </c>
       <c r="C945" t="n">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE37</t>
+          <t>BACHELORSDEGREE37</t>
         </is>
       </c>
       <c r="C946" t="n">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1216</t>
+          <t>BACHELORSDEGREE1216</t>
         </is>
       </c>
       <c r="C947" t="n">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE58</t>
+          <t>BACHELORSDEGREE58</t>
         </is>
       </c>
       <c r="C948" t="n">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE122</t>
+          <t>BACHELORSDEGREE122</t>
         </is>
       </c>
       <c r="C949" t="n">
@@ -20362,7 +20362,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE515</t>
+          <t>BACHELORSDEGREE515</t>
         </is>
       </c>
       <c r="C950" t="n">
@@ -20383,7 +20383,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE15</t>
+          <t>BACHELORSDEGREE15</t>
         </is>
       </c>
       <c r="C951" t="n">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE420</t>
+          <t>BACHELORSDEGREE420</t>
         </is>
       </c>
       <c r="C952" t="n">
@@ -20425,7 +20425,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1515</t>
+          <t>BACHELORSDEGREE1515</t>
         </is>
       </c>
       <c r="C953" t="n">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE121</t>
+          <t>BACHELORSDEGREE121</t>
         </is>
       </c>
       <c r="C954" t="n">
@@ -20467,7 +20467,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE47</t>
+          <t>BACHELORSDEGREE47</t>
         </is>
       </c>
       <c r="C955" t="n">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE45</t>
+          <t>BACHELORSDEGREE45</t>
         </is>
       </c>
       <c r="C956" t="n">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE09</t>
+          <t>BACHELORSDEGREE09</t>
         </is>
       </c>
       <c r="C959" t="n">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1923</t>
+          <t>BACHELORSDEGREE1923</t>
         </is>
       </c>
       <c r="C961" t="n">
@@ -20614,7 +20614,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE311</t>
+          <t>BACHELORSDEGREE311</t>
         </is>
       </c>
       <c r="C962" t="n">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE48</t>
+          <t>BACHELORSDEGREE48</t>
         </is>
       </c>
       <c r="C963" t="n">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE510</t>
+          <t>BACHELORSDEGREE510</t>
         </is>
       </c>
       <c r="C964" t="n">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE120</t>
+          <t>BACHELORSDEGREE120</t>
         </is>
       </c>
       <c r="C965" t="n">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE217</t>
+          <t>BACHELORSDEGREE217</t>
         </is>
       </c>
       <c r="C966" t="n">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1219</t>
+          <t>MASTERSDEGREE1219</t>
         </is>
       </c>
       <c r="C967" t="n">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE29</t>
+          <t>BACHELORSDEGREE29</t>
         </is>
       </c>
       <c r="C968" t="n">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE35</t>
+          <t>BACHELORSDEGREE35</t>
         </is>
       </c>
       <c r="C970" t="n">
@@ -20803,7 +20803,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE34</t>
+          <t>BACHELORSDEGREE34</t>
         </is>
       </c>
       <c r="C971" t="n">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1414</t>
+          <t>BACHELORSDEGREE1414</t>
         </is>
       </c>
       <c r="C972" t="n">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1020</t>
+          <t>BACHELORSDEGREE1020</t>
         </is>
       </c>
       <c r="C974" t="n">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE214</t>
+          <t>BACHELORSDEGREE214</t>
         </is>
       </c>
       <c r="C975" t="n">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE113</t>
+          <t>BACHELORSDEGREE113</t>
         </is>
       </c>
       <c r="C976" t="n">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE39</t>
+          <t>BACHELORSDEGREE39</t>
         </is>
       </c>
       <c r="C977" t="n">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1010</t>
+          <t>BACHELORSDEGREE1010</t>
         </is>
       </c>
       <c r="C979" t="n">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1017</t>
+          <t>BACHELORSDEGREE1017</t>
         </is>
       </c>
       <c r="C980" t="n">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE218</t>
+          <t>BACHELORSDEGREE218</t>
         </is>
       </c>
       <c r="C981" t="n">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1112</t>
+          <t>BACHELORSDEGREE1112</t>
         </is>
       </c>
       <c r="C982" t="n">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE813</t>
+          <t>BACHELORSDEGREE813</t>
         </is>
       </c>
       <c r="C983" t="n">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE57</t>
+          <t>BACHELORSDEGREE57</t>
         </is>
       </c>
       <c r="C984" t="n">
@@ -21097,7 +21097,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE220</t>
+          <t>BACHELORSDEGREE220</t>
         </is>
       </c>
       <c r="C985" t="n">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE620</t>
+          <t>BACHELORSDEGREE620</t>
         </is>
       </c>
       <c r="C986" t="n">
@@ -21139,7 +21139,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE38</t>
+          <t>BACHELORSDEGREE38</t>
         </is>
       </c>
       <c r="C987" t="n">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE312</t>
+          <t>BACHELORSDEGREE312</t>
         </is>
       </c>
       <c r="C988" t="n">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1520</t>
+          <t>BACHELORSDEGREE1520</t>
         </is>
       </c>
       <c r="C989" t="n">
@@ -21202,7 +21202,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE130</t>
+          <t>MASTERSDEGREE130</t>
         </is>
       </c>
       <c r="C990" t="n">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE712</t>
+          <t>BACHELORSDEGREE712</t>
         </is>
       </c>
       <c r="C995" t="n">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1014</t>
+          <t>BACHELORSDEGREE1014</t>
         </is>
       </c>
       <c r="C996" t="n">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE56</t>
+          <t>BACHELORSDEGREE56</t>
         </is>
       </c>
       <c r="C997" t="n">
@@ -21370,7 +21370,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE314</t>
+          <t>BACHELORSDEGREE314</t>
         </is>
       </c>
       <c r="C998" t="n">
@@ -21391,7 +21391,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE124</t>
+          <t>BACHELORSDEGREE124</t>
         </is>
       </c>
       <c r="C999" t="n">
@@ -21433,7 +21433,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE817</t>
+          <t>MASTERSDEGREE817</t>
         </is>
       </c>
       <c r="C1001" t="n">
@@ -21454,7 +21454,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE613</t>
+          <t>BACHELORSDEGREE613</t>
         </is>
       </c>
       <c r="C1002" t="n">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1323</t>
+          <t>BACHELORSDEGREE1323</t>
         </is>
       </c>
       <c r="C1003" t="n">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE612</t>
+          <t>BACHELORSDEGREE612</t>
         </is>
       </c>
       <c r="C1004" t="n">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE520</t>
+          <t>BACHELORSDEGREE520</t>
         </is>
       </c>
       <c r="C1005" t="n">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE915</t>
+          <t>BACHELORSDEGREE915</t>
         </is>
       </c>
       <c r="C1008" t="n">
@@ -21622,7 +21622,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE415</t>
+          <t>BACHELORSDEGREE415</t>
         </is>
       </c>
       <c r="C1010" t="n">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE317</t>
+          <t>BACHELORSDEGREE317</t>
         </is>
       </c>
       <c r="C1011" t="n">
@@ -21664,7 +21664,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1011</t>
+          <t>BACHELORSDEGREE1011</t>
         </is>
       </c>
       <c r="C1012" t="n">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE320</t>
+          <t>BACHELORSDEGREE320</t>
         </is>
       </c>
       <c r="C1013" t="n">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE011</t>
+          <t>BACHELORSDEGREE011</t>
         </is>
       </c>
       <c r="C1014" t="n">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2123</t>
+          <t>MASTERSDEGREE2123</t>
         </is>
       </c>
       <c r="C1017" t="n">
@@ -21790,7 +21790,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE318</t>
+          <t>BACHELORSDEGREE318</t>
         </is>
       </c>
       <c r="C1018" t="n">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE023</t>
+          <t>MASTERSDEGREE023</t>
         </is>
       </c>
       <c r="C1019" t="n">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE122</t>
+          <t>MASTERSDEGREE122</t>
         </is>
       </c>
       <c r="C1020" t="n">
@@ -21853,7 +21853,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE720</t>
+          <t>BACHELORSDEGREE720</t>
         </is>
       </c>
       <c r="C1021" t="n">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE111</t>
+          <t>BACHELORSDEGREE111</t>
         </is>
       </c>
       <c r="C1022" t="n">
@@ -21895,7 +21895,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE810</t>
+          <t>BACHELORSDEGREE810</t>
         </is>
       </c>
       <c r="C1023" t="n">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE79</t>
+          <t>BACHELORSDEGREE79</t>
         </is>
       </c>
       <c r="C1024" t="n">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2425</t>
+          <t>MASTERSDEGREE2425</t>
         </is>
       </c>
       <c r="C1027" t="n">
@@ -22000,7 +22000,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE68</t>
+          <t>BACHELORSDEGREE68</t>
         </is>
       </c>
       <c r="C1028" t="n">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE411</t>
+          <t>BACHELORSDEGREE411</t>
         </is>
       </c>
       <c r="C1030" t="n">
@@ -22063,7 +22063,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE117</t>
+          <t>BACHELORSDEGREE117</t>
         </is>
       </c>
       <c r="C1031" t="n">
@@ -22084,7 +22084,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2529</t>
+          <t>BACHELORSDEGREE2529</t>
         </is>
       </c>
       <c r="C1032" t="n">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1518</t>
+          <t>BACHELORSDEGREE1518</t>
         </is>
       </c>
       <c r="C1033" t="n">
@@ -22126,7 +22126,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE08</t>
+          <t>BACHELORSDEGREE08</t>
         </is>
       </c>
       <c r="C1034" t="n">
@@ -22147,7 +22147,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE213</t>
+          <t>BACHELORSDEGREE213</t>
         </is>
       </c>
       <c r="C1035" t="n">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1525</t>
+          <t>BACHELORSDEGREE1525</t>
         </is>
       </c>
       <c r="C1036" t="n">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1419</t>
+          <t>MASTERSDEGREE1419</t>
         </is>
       </c>
       <c r="C1039" t="n">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE523</t>
+          <t>BACHELORSDEGREE523</t>
         </is>
       </c>
       <c r="C1040" t="n">
@@ -22273,7 +22273,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE418</t>
+          <t>BACHELORSDEGREE418</t>
         </is>
       </c>
       <c r="C1041" t="n">
@@ -22294,7 +22294,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE228</t>
+          <t>MASTERSDEGREE228</t>
         </is>
       </c>
       <c r="C1042" t="n">
@@ -22315,7 +22315,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE912</t>
+          <t>BACHELORSDEGREE912</t>
         </is>
       </c>
       <c r="C1043" t="n">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE820</t>
+          <t>BACHELORSDEGREE820</t>
         </is>
       </c>
       <c r="C1044" t="n">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE715</t>
+          <t>BACHELORSDEGREE715</t>
         </is>
       </c>
       <c r="C1045" t="n">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE67</t>
+          <t>BACHELORSDEGREE67</t>
         </is>
       </c>
       <c r="C1046" t="n">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2222</t>
+          <t>BACHELORSDEGREE2222</t>
         </is>
       </c>
       <c r="C1047" t="n">
@@ -22420,7 +22420,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE812</t>
+          <t>BACHELORSDEGREE812</t>
         </is>
       </c>
       <c r="C1048" t="n">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE014</t>
+          <t>BACHELORSDEGREE014</t>
         </is>
       </c>
       <c r="C1049" t="n">
@@ -22462,7 +22462,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1320</t>
+          <t>BACHELORSDEGREE1320</t>
         </is>
       </c>
       <c r="C1050" t="n">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1120</t>
+          <t>BACHELORSDEGREE1120</t>
         </is>
       </c>
       <c r="C1051" t="n">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE99</t>
+          <t>BACHELORSDEGREE99</t>
         </is>
       </c>
       <c r="C1053" t="n">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE615</t>
+          <t>BACHELORSDEGREE615</t>
         </is>
       </c>
       <c r="C1054" t="n">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE114</t>
+          <t>BACHELORSDEGREE114</t>
         </is>
       </c>
       <c r="C1055" t="n">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE825</t>
+          <t>BACHELORSDEGREE825</t>
         </is>
       </c>
       <c r="C1056" t="n">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1114</t>
+          <t>BACHELORSDEGREE1114</t>
         </is>
       </c>
       <c r="C1057" t="n">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE022</t>
+          <t>BACHELORSDEGREE022</t>
         </is>
       </c>
       <c r="C1061" t="n">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE816</t>
+          <t>BACHELORSDEGREE816</t>
         </is>
       </c>
       <c r="C1062" t="n">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1315</t>
+          <t>BACHELORSDEGREE1315</t>
         </is>
       </c>
       <c r="C1063" t="n">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1221</t>
+          <t>MASTERSDEGREE1221</t>
         </is>
       </c>
       <c r="C1064" t="n">
@@ -22798,7 +22798,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1030</t>
+          <t>BACHELORSDEGREE1030</t>
         </is>
       </c>
       <c r="C1066" t="n">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1415</t>
+          <t>BACHELORSDEGREE1415</t>
         </is>
       </c>
       <c r="C1067" t="n">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE414</t>
+          <t>BACHELORSDEGREE414</t>
         </is>
       </c>
       <c r="C1069" t="n">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1116</t>
+          <t>MASTERSDEGREE1116</t>
         </is>
       </c>
       <c r="C1070" t="n">
@@ -22903,7 +22903,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2424</t>
+          <t>BACHELORSDEGREE2424</t>
         </is>
       </c>
       <c r="C1071" t="n">
@@ -22945,7 +22945,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE817</t>
+          <t>BACHELORSDEGREE817</t>
         </is>
       </c>
       <c r="C1073" t="n">
@@ -22987,7 +22987,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE425</t>
+          <t>MASTERSDEGREE425</t>
         </is>
       </c>
       <c r="C1075" t="n">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1317</t>
+          <t>BACHELORSDEGREE1317</t>
         </is>
       </c>
       <c r="C1076" t="n">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1212</t>
+          <t>BACHELORSDEGREE1212</t>
         </is>
       </c>
       <c r="C1077" t="n">
@@ -23050,7 +23050,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE514</t>
+          <t>BACHELORSDEGREE514</t>
         </is>
       </c>
       <c r="C1078" t="n">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE212</t>
+          <t>BACHELORSDEGREE212</t>
         </is>
       </c>
       <c r="C1079" t="n">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE911</t>
+          <t>BACHELORSDEGREE911</t>
         </is>
       </c>
       <c r="C1081" t="n">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE525</t>
+          <t>BACHELORSDEGREE525</t>
         </is>
       </c>
       <c r="C1084" t="n">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1125</t>
+          <t>BACHELORSDEGREE1125</t>
         </is>
       </c>
       <c r="C1085" t="n">
@@ -23218,7 +23218,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE713</t>
+          <t>BACHELORSDEGREE713</t>
         </is>
       </c>
       <c r="C1086" t="n">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE516</t>
+          <t>BACHELORSDEGREE516</t>
         </is>
       </c>
       <c r="C1087" t="n">
@@ -23260,7 +23260,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE413</t>
+          <t>BACHELORSDEGREE413</t>
         </is>
       </c>
       <c r="C1088" t="n">
@@ -23281,7 +23281,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE020</t>
+          <t>BACHELORSDEGREE020</t>
         </is>
       </c>
       <c r="C1089" t="n">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1425</t>
+          <t>MASTERSDEGREE1425</t>
         </is>
       </c>
       <c r="C1091" t="n">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2023</t>
+          <t>BACHELORSDEGREE2023</t>
         </is>
       </c>
       <c r="C1092" t="n">
@@ -23365,7 +23365,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2323</t>
+          <t>BACHELORSDEGREE2323</t>
         </is>
       </c>
       <c r="C1093" t="n">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1722</t>
+          <t>MASTERSDEGREE1722</t>
         </is>
       </c>
       <c r="C1095" t="n">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1111</t>
+          <t>BACHELORSDEGREE1111</t>
         </is>
       </c>
       <c r="C1096" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1217</t>
+          <t>BACHELORSDEGREE1217</t>
         </is>
       </c>
       <c r="C1097" t="n">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE016</t>
+          <t>BACHELORSDEGREE016</t>
         </is>
       </c>
       <c r="C1098" t="n">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE59</t>
+          <t>BACHELORSDEGREE59</t>
         </is>
       </c>
       <c r="C1099" t="n">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE616</t>
+          <t>BACHELORSDEGREE616</t>
         </is>
       </c>
       <c r="C1100" t="n">
@@ -23554,7 +23554,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE78</t>
+          <t>BACHELORSDEGREE78</t>
         </is>
       </c>
       <c r="C1102" t="n">
@@ -23575,7 +23575,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE519</t>
+          <t>MASTERSDEGREE519</t>
         </is>
       </c>
       <c r="C1103" t="n">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE69</t>
+          <t>BACHELORSDEGREE69</t>
         </is>
       </c>
       <c r="C1104" t="n">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE512</t>
+          <t>BACHELORSDEGREE512</t>
         </is>
       </c>
       <c r="C1106" t="n">
@@ -23722,7 +23722,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2225</t>
+          <t>MASTERSDEGREE2225</t>
         </is>
       </c>
       <c r="C1110" t="n">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE013</t>
+          <t>BACHELORSDEGREE013</t>
         </is>
       </c>
       <c r="C1112" t="n">
@@ -23785,7 +23785,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1423</t>
+          <t>BACHELORSDEGREE1423</t>
         </is>
       </c>
       <c r="C1113" t="n">
@@ -23806,7 +23806,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE119</t>
+          <t>BACHELORSDEGREE119</t>
         </is>
       </c>
       <c r="C1114" t="n">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1215</t>
+          <t>BACHELORSDEGREE1215</t>
         </is>
       </c>
       <c r="C1116" t="n">
@@ -23890,7 +23890,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE517</t>
+          <t>BACHELORSDEGREE517</t>
         </is>
       </c>
       <c r="C1118" t="n">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1330</t>
+          <t>MASTERSDEGREE1330</t>
         </is>
       </c>
       <c r="C1119" t="n">
@@ -23974,7 +23974,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE714</t>
+          <t>BACHELORSDEGREE714</t>
         </is>
       </c>
       <c r="C1122" t="n">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1717</t>
+          <t>MASTERSDEGREE1717</t>
         </is>
       </c>
       <c r="C1123" t="n">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE223</t>
+          <t>MASTERSDEGREE223</t>
         </is>
       </c>
       <c r="C1125" t="n">
@@ -24100,7 +24100,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1318</t>
+          <t>BACHELORSDEGREE1318</t>
         </is>
       </c>
       <c r="C1128" t="n">
@@ -24142,7 +24142,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE511</t>
+          <t>BACHELORSDEGREE511</t>
         </is>
       </c>
       <c r="C1130" t="n">
@@ -24163,7 +24163,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1015</t>
+          <t>BACHELORSDEGREE1015</t>
         </is>
       </c>
       <c r="C1131" t="n">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1314</t>
+          <t>BACHELORSDEGREE1314</t>
         </is>
       </c>
       <c r="C1132" t="n">
@@ -24226,7 +24226,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2124</t>
+          <t>MASTERSDEGREE2124</t>
         </is>
       </c>
       <c r="C1134" t="n">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE821</t>
+          <t>MASTERSDEGREE821</t>
         </is>
       </c>
       <c r="C1138" t="n">
@@ -24331,7 +24331,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE123</t>
+          <t>BACHELORSDEGREE123</t>
         </is>
       </c>
       <c r="C1139" t="n">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE022</t>
+          <t>MASTERSDEGREE022</t>
         </is>
       </c>
       <c r="C1140" t="n">
@@ -24415,7 +24415,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1421</t>
+          <t>MASTERSDEGREE1421</t>
         </is>
       </c>
       <c r="C1143" t="n">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2727</t>
+          <t>MASTERSDEGREE2727</t>
         </is>
       </c>
       <c r="C1144" t="n">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1717</t>
+          <t>BACHELORSDEGREE1717</t>
         </is>
       </c>
       <c r="C1145" t="n">
@@ -24499,7 +24499,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1321</t>
+          <t>BACHELORSDEGREE1321</t>
         </is>
       </c>
       <c r="C1147" t="n">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1619</t>
+          <t>BACHELORSDEGREE1619</t>
         </is>
       </c>
       <c r="C1148" t="n">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE430</t>
+          <t>MASTERSDEGREE430</t>
         </is>
       </c>
       <c r="C1149" t="n">
@@ -24562,7 +24562,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1636</t>
+          <t>MASTERSDEGREE1636</t>
         </is>
       </c>
       <c r="C1150" t="n">
@@ -24583,7 +24583,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2828</t>
+          <t>MASTERSDEGREE2828</t>
         </is>
       </c>
       <c r="C1151" t="n">
@@ -24604,7 +24604,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2335</t>
+          <t>BACHELORSDEGREE2335</t>
         </is>
       </c>
       <c r="C1152" t="n">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1021</t>
+          <t>BACHELORSDEGREE1021</t>
         </is>
       </c>
       <c r="C1153" t="n">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1220</t>
+          <t>BACHELORSDEGREE1220</t>
         </is>
       </c>
       <c r="C1154" t="n">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE225</t>
+          <t>BACHELORSDEGREE225</t>
         </is>
       </c>
       <c r="C1157" t="n">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2025</t>
+          <t>BACHELORSDEGREE2025</t>
         </is>
       </c>
       <c r="C1158" t="n">
@@ -24772,7 +24772,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE523</t>
+          <t>MASTERSDEGREE523</t>
         </is>
       </c>
       <c r="C1160" t="n">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE335</t>
+          <t>MASTERSDEGREE335</t>
         </is>
       </c>
       <c r="C1161" t="n">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1418</t>
+          <t>BACHELORSDEGREE1418</t>
         </is>
       </c>
       <c r="C1162" t="n">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE224</t>
+          <t>BACHELORSDEGREE224</t>
         </is>
       </c>
       <c r="C1164" t="n">
@@ -24877,7 +24877,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1022</t>
+          <t>BACHELORSDEGREE1022</t>
         </is>
       </c>
       <c r="C1165" t="n">
@@ -24898,7 +24898,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE811</t>
+          <t>BACHELORSDEGREE811</t>
         </is>
       </c>
       <c r="C1166" t="n">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1012</t>
+          <t>BACHELORSDEGREE1012</t>
         </is>
       </c>
       <c r="C1167" t="n">
@@ -24982,7 +24982,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1323</t>
+          <t>MASTERSDEGREE1323</t>
         </is>
       </c>
       <c r="C1170" t="n">
@@ -25045,7 +25045,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2040</t>
+          <t>BACHELORSDEGREE2040</t>
         </is>
       </c>
       <c r="C1173" t="n">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE324</t>
+          <t>BACHELORSDEGREE324</t>
         </is>
       </c>
       <c r="C1174" t="n">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2030</t>
+          <t>BACHELORSDEGREE2030</t>
         </is>
       </c>
       <c r="C1179" t="n">
@@ -25192,7 +25192,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1722</t>
+          <t>BACHELORSDEGREE1722</t>
         </is>
       </c>
       <c r="C1180" t="n">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE614</t>
+          <t>BACHELORSDEGREE614</t>
         </is>
       </c>
       <c r="C1184" t="n">
@@ -25297,7 +25297,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1415</t>
+          <t>MASTERSDEGREE1415</t>
         </is>
       </c>
       <c r="C1185" t="n">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1317</t>
+          <t>MASTERSDEGREE1317</t>
         </is>
       </c>
       <c r="C1186" t="n">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE910</t>
+          <t>BACHELORSDEGREE910</t>
         </is>
       </c>
       <c r="C1187" t="n">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1524</t>
+          <t>BACHELORSDEGREE1524</t>
         </is>
       </c>
       <c r="C1188" t="n">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE513</t>
+          <t>BACHELORSDEGREE513</t>
         </is>
       </c>
       <c r="C1190" t="n">
@@ -25444,7 +25444,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE920</t>
+          <t>BACHELORSDEGREE920</t>
         </is>
       </c>
       <c r="C1192" t="n">
@@ -25465,7 +25465,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE132</t>
+          <t>BACHELORSDEGREE132</t>
         </is>
       </c>
       <c r="C1193" t="n">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1117</t>
+          <t>BACHELORSDEGREE1117</t>
         </is>
       </c>
       <c r="C1194" t="n">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1516</t>
+          <t>BACHELORSDEGREE1516</t>
         </is>
       </c>
       <c r="C1197" t="n">
@@ -25570,7 +25570,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE222</t>
+          <t>BACHELORSDEGREE222</t>
         </is>
       </c>
       <c r="C1198" t="n">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1622</t>
+          <t>BACHELORSDEGREE1622</t>
         </is>
       </c>
       <c r="C1199" t="n">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE922</t>
+          <t>MASTERSDEGREE922</t>
         </is>
       </c>
       <c r="C1202" t="n">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1027</t>
+          <t>BACHELORSDEGREE1027</t>
         </is>
       </c>
       <c r="C1203" t="n">
@@ -25696,7 +25696,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1419</t>
+          <t>BACHELORSDEGREE1419</t>
         </is>
       </c>
       <c r="C1204" t="n">
@@ -25738,7 +25738,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2123</t>
+          <t>BACHELORSDEGREE2123</t>
         </is>
       </c>
       <c r="C1206" t="n">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1616</t>
+          <t>BACHELORSDEGREE1616</t>
         </is>
       </c>
       <c r="C1209" t="n">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE330</t>
+          <t>BACHELORSDEGREE330</t>
         </is>
       </c>
       <c r="C1211" t="n">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE219</t>
+          <t>BACHELORSDEGREE219</t>
         </is>
       </c>
       <c r="C1213" t="n">
@@ -25906,7 +25906,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE519</t>
+          <t>BACHELORSDEGREE519</t>
         </is>
       </c>
       <c r="C1214" t="n">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1920</t>
+          <t>BACHELORSDEGREE1920</t>
         </is>
       </c>
       <c r="C1216" t="n">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE630</t>
+          <t>BACHELORSDEGREE630</t>
         </is>
       </c>
       <c r="C1217" t="n">
@@ -25990,7 +25990,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1420</t>
+          <t>BACHELORSDEGREE1420</t>
         </is>
       </c>
       <c r="C1218" t="n">
@@ -26032,7 +26032,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE533</t>
+          <t>BACHELORSDEGREE533</t>
         </is>
       </c>
       <c r="C1220" t="n">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1530</t>
+          <t>BACHELORSDEGREE1530</t>
         </is>
       </c>
       <c r="C1224" t="n">
@@ -26158,7 +26158,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1023</t>
+          <t>BACHELORSDEGREE1023</t>
         </is>
       </c>
       <c r="C1226" t="n">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1119</t>
+          <t>BACHELORSDEGREE1119</t>
         </is>
       </c>
       <c r="C1228" t="n">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE529</t>
+          <t>MASTERSDEGREE529</t>
         </is>
       </c>
       <c r="C1229" t="n">
@@ -26263,7 +26263,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE116</t>
+          <t>BACHELORSDEGREE116</t>
         </is>
       </c>
       <c r="C1231" t="n">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2327</t>
+          <t>MASTERSDEGREE2327</t>
         </is>
       </c>
       <c r="C1232" t="n">
@@ -26305,7 +26305,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE335</t>
+          <t>BACHELORSDEGREE335</t>
         </is>
       </c>
       <c r="C1233" t="n">
@@ -26326,7 +26326,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE023</t>
+          <t>BACHELORSDEGREE023</t>
         </is>
       </c>
       <c r="C1234" t="n">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1235</t>
+          <t>MASTERSDEGREE1235</t>
         </is>
       </c>
       <c r="C1235" t="n">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE618</t>
+          <t>BACHELORSDEGREE618</t>
         </is>
       </c>
       <c r="C1236" t="n">
@@ -26389,7 +26389,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2531</t>
+          <t>BACHELORSDEGREE2531</t>
         </is>
       </c>
       <c r="C1237" t="n">
@@ -26410,7 +26410,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1920</t>
+          <t>MASTERSDEGREE1920</t>
         </is>
       </c>
       <c r="C1238" t="n">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1421</t>
+          <t>BACHELORSDEGREE1421</t>
         </is>
       </c>
       <c r="C1239" t="n">
@@ -26473,7 +26473,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1536</t>
+          <t>BACHELORSDEGREE1536</t>
         </is>
       </c>
       <c r="C1241" t="n">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE622</t>
+          <t>BACHELORSDEGREE622</t>
         </is>
       </c>
       <c r="C1242" t="n">
@@ -26515,7 +26515,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE724</t>
+          <t>BACHELORSDEGREE724</t>
         </is>
       </c>
       <c r="C1243" t="n">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE619</t>
+          <t>BACHELORSDEGREE619</t>
         </is>
       </c>
       <c r="C1245" t="n">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE919</t>
+          <t>BACHELORSDEGREE919</t>
         </is>
       </c>
       <c r="C1246" t="n">
@@ -26599,7 +26599,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1226</t>
+          <t>MASTERSDEGREE1226</t>
         </is>
       </c>
       <c r="C1247" t="n">
@@ -26620,7 +26620,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE918</t>
+          <t>BACHELORSDEGREE918</t>
         </is>
       </c>
       <c r="C1248" t="n">
@@ -26641,7 +26641,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE340</t>
+          <t>MASTERSDEGREE340</t>
         </is>
       </c>
       <c r="C1249" t="n">
@@ -26662,7 +26662,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1623</t>
+          <t>BACHELORSDEGREE1623</t>
         </is>
       </c>
       <c r="C1250" t="n">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE024</t>
+          <t>BACHELORSDEGREE024</t>
         </is>
       </c>
       <c r="C1251" t="n">
@@ -26704,7 +26704,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2525</t>
+          <t>MASTERSDEGREE2525</t>
         </is>
       </c>
       <c r="C1252" t="n">
@@ -26725,7 +26725,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE425</t>
+          <t>BACHELORSDEGREE425</t>
         </is>
       </c>
       <c r="C1253" t="n">
@@ -26746,7 +26746,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1320</t>
+          <t>MASTERSDEGREE1320</t>
         </is>
       </c>
       <c r="C1254" t="n">
@@ -26830,7 +26830,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE936</t>
+          <t>MASTERSDEGREE936</t>
         </is>
       </c>
       <c r="C1258" t="n">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2525</t>
+          <t>BACHELORSDEGREE2525</t>
         </is>
       </c>
       <c r="C1259" t="n">
@@ -26893,7 +26893,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE224</t>
+          <t>MASTERSDEGREE224</t>
         </is>
       </c>
       <c r="C1261" t="n">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE818</t>
+          <t>BACHELORSDEGREE818</t>
         </is>
       </c>
       <c r="C1264" t="n">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1517</t>
+          <t>BACHELORSDEGREE1517</t>
         </is>
       </c>
       <c r="C1266" t="n">
@@ -27019,7 +27019,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1018</t>
+          <t>BACHELORSDEGREE1018</t>
         </is>
       </c>
       <c r="C1267" t="n">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE524</t>
+          <t>BACHELORSDEGREE524</t>
         </is>
       </c>
       <c r="C1268" t="n">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1640</t>
+          <t>MASTERSDEGREE1640</t>
         </is>
       </c>
       <c r="C1270" t="n">
@@ -27145,7 +27145,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2021</t>
+          <t>BACHELORSDEGREE2021</t>
         </is>
       </c>
       <c r="C1273" t="n">
@@ -27166,7 +27166,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE930</t>
+          <t>MASTERSDEGREE930</t>
         </is>
       </c>
       <c r="C1274" t="n">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE630</t>
+          <t>MASTERSDEGREE630</t>
         </is>
       </c>
       <c r="C1276" t="n">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1522</t>
+          <t>MASTERSDEGREE1522</t>
         </is>
       </c>
       <c r="C1277" t="n">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1737</t>
+          <t>MASTERSDEGREE1737</t>
         </is>
       </c>
       <c r="C1278" t="n">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE228</t>
+          <t>BACHELORSDEGREE228</t>
         </is>
       </c>
       <c r="C1279" t="n">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2027</t>
+          <t>MASTERSDEGREE2027</t>
         </is>
       </c>
       <c r="C1282" t="n">
@@ -27376,7 +27376,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2335</t>
+          <t>MASTERSDEGREE2335</t>
         </is>
       </c>
       <c r="C1284" t="n">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE330</t>
+          <t>MASTERSDEGREE330</t>
         </is>
       </c>
       <c r="C1285" t="n">
@@ -27460,7 +27460,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1720</t>
+          <t>BACHELORSDEGREE1720</t>
         </is>
       </c>
       <c r="C1288" t="n">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1013</t>
+          <t>BACHELORSDEGREE1013</t>
         </is>
       </c>
       <c r="C1292" t="n">
@@ -27607,7 +27607,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE030</t>
+          <t>BACHELORSDEGREE030</t>
         </is>
       </c>
       <c r="C1295" t="n">
@@ -27670,7 +27670,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1225</t>
+          <t>BACHELORSDEGREE1225</t>
         </is>
       </c>
       <c r="C1298" t="n">
@@ -27691,7 +27691,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE124</t>
+          <t>MASTERSDEGREE124</t>
         </is>
       </c>
       <c r="C1299" t="n">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2729</t>
+          <t>BACHELORSDEGREE2729</t>
         </is>
       </c>
       <c r="C1303" t="n">
@@ -27796,7 +27796,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE89</t>
+          <t>BACHELORSDEGREE89</t>
         </is>
       </c>
       <c r="C1304" t="n">
@@ -27817,7 +27817,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1325</t>
+          <t>BACHELORSDEGREE1325</t>
         </is>
       </c>
       <c r="C1305" t="n">
@@ -27880,7 +27880,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE717</t>
+          <t>BACHELORSDEGREE717</t>
         </is>
       </c>
       <c r="C1308" t="n">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1417</t>
+          <t>BACHELORSDEGREE1417</t>
         </is>
       </c>
       <c r="C1310" t="n">
@@ -27964,7 +27964,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1719</t>
+          <t>MASTERSDEGREE1719</t>
         </is>
       </c>
       <c r="C1312" t="n">
@@ -27985,7 +27985,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2328</t>
+          <t>MASTERSDEGREE2328</t>
         </is>
       </c>
       <c r="C1313" t="n">
@@ -28006,7 +28006,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2024</t>
+          <t>BACHELORSDEGREE2024</t>
         </is>
       </c>
       <c r="C1314" t="n">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE916</t>
+          <t>BACHELORSDEGREE916</t>
         </is>
       </c>
       <c r="C1315" t="n">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE419</t>
+          <t>BACHELORSDEGREE419</t>
         </is>
       </c>
       <c r="C1316" t="n">
@@ -28111,7 +28111,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE635</t>
+          <t>MASTERSDEGREE635</t>
         </is>
       </c>
       <c r="C1319" t="n">
@@ -28132,7 +28132,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE326</t>
+          <t>MASTERSDEGREE326</t>
         </is>
       </c>
       <c r="C1320" t="n">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1035</t>
+          <t>BACHELORSDEGREE1035</t>
         </is>
       </c>
       <c r="C1322" t="n">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1224</t>
+          <t>BACHELORSDEGREE1224</t>
         </is>
       </c>
       <c r="C1324" t="n">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2530</t>
+          <t>BACHELORSDEGREE2530</t>
         </is>
       </c>
       <c r="C1325" t="n">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE814</t>
+          <t>BACHELORSDEGREE814</t>
         </is>
       </c>
       <c r="C1326" t="n">
@@ -28300,7 +28300,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2424</t>
+          <t>MASTERSDEGREE2424</t>
         </is>
       </c>
       <c r="C1328" t="n">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1538</t>
+          <t>MASTERSDEGREE1538</t>
         </is>
       </c>
       <c r="C1329" t="n">
@@ -28342,7 +28342,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1522</t>
+          <t>BACHELORSDEGREE1522</t>
         </is>
       </c>
       <c r="C1330" t="n">
@@ -28405,7 +28405,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE716</t>
+          <t>BACHELORSDEGREE716</t>
         </is>
       </c>
       <c r="C1333" t="n">
@@ -28447,7 +28447,7 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1416</t>
+          <t>MASTERSDEGREE1416</t>
         </is>
       </c>
       <c r="C1335" t="n">
@@ -28489,7 +28489,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE417</t>
+          <t>BACHELORSDEGREE417</t>
         </is>
       </c>
       <c r="C1337" t="n">
@@ -28510,7 +28510,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE721</t>
+          <t>MASTERSDEGREE721</t>
         </is>
       </c>
       <c r="C1338" t="n">
@@ -28531,7 +28531,7 @@
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE830</t>
+          <t>BACHELORSDEGREE830</t>
         </is>
       </c>
       <c r="C1339" t="n">
@@ -28552,7 +28552,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1621</t>
+          <t>MASTERSDEGREE1621</t>
         </is>
       </c>
       <c r="C1340" t="n">
@@ -28573,7 +28573,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE522</t>
+          <t>BACHELORSDEGREE522</t>
         </is>
       </c>
       <c r="C1341" t="n">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE018</t>
+          <t>BACHELORSDEGREE018</t>
         </is>
       </c>
       <c r="C1343" t="n">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE221</t>
+          <t>BACHELORSDEGREE221</t>
         </is>
       </c>
       <c r="C1344" t="n">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE518</t>
+          <t>BACHELORSDEGREE518</t>
         </is>
       </c>
       <c r="C1345" t="n">
@@ -28720,7 +28720,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1818</t>
+          <t>BACHELORSDEGREE1818</t>
         </is>
       </c>
       <c r="C1348" t="n">
@@ -28741,7 +28741,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1319</t>
+          <t>BACHELORSDEGREE1319</t>
         </is>
       </c>
       <c r="C1349" t="n">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1025</t>
+          <t>BACHELORSDEGREE1025</t>
         </is>
       </c>
       <c r="C1353" t="n">
@@ -28888,7 +28888,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1019</t>
+          <t>BACHELORSDEGREE1019</t>
         </is>
       </c>
       <c r="C1356" t="n">
@@ -28930,7 +28930,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1122</t>
+          <t>MASTERSDEGREE1122</t>
         </is>
       </c>
       <c r="C1358" t="n">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2427</t>
+          <t>MASTERSDEGREE2427</t>
         </is>
       </c>
       <c r="C1362" t="n">
@@ -29035,7 +29035,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2333</t>
+          <t>BACHELORSDEGREE2333</t>
         </is>
       </c>
       <c r="C1363" t="n">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE230</t>
+          <t>BACHELORSDEGREE230</t>
         </is>
       </c>
       <c r="C1367" t="n">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1430</t>
+          <t>BACHELORSDEGREE1430</t>
         </is>
       </c>
       <c r="C1368" t="n">
@@ -29161,7 +29161,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1424</t>
+          <t>BACHELORSDEGREE1424</t>
         </is>
       </c>
       <c r="C1369" t="n">
@@ -29182,7 +29182,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1919</t>
+          <t>BACHELORSDEGREE1919</t>
         </is>
       </c>
       <c r="C1370" t="n">
@@ -29224,7 +29224,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1820</t>
+          <t>BACHELORSDEGREE1820</t>
         </is>
       </c>
       <c r="C1372" t="n">
@@ -29266,7 +29266,7 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1030</t>
+          <t>MASTERSDEGREE1030</t>
         </is>
       </c>
       <c r="C1374" t="n">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2045</t>
+          <t>MASTERSDEGREE2045</t>
         </is>
       </c>
       <c r="C1378" t="n">
@@ -29371,7 +29371,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2122</t>
+          <t>BACHELORSDEGREE2122</t>
         </is>
       </c>
       <c r="C1379" t="n">
@@ -29392,7 +29392,7 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1029</t>
+          <t>BACHELORSDEGREE1029</t>
         </is>
       </c>
       <c r="C1380" t="n">
@@ -29413,7 +29413,7 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1222</t>
+          <t>BACHELORSDEGREE1222</t>
         </is>
       </c>
       <c r="C1381" t="n">
@@ -29455,7 +29455,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1121</t>
+          <t>BACHELORSDEGREE1121</t>
         </is>
       </c>
       <c r="C1383" t="n">
@@ -29476,7 +29476,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2229</t>
+          <t>MASTERSDEGREE2229</t>
         </is>
       </c>
       <c r="C1384" t="n">
@@ -29497,7 +29497,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2039</t>
+          <t>MASTERSDEGREE2039</t>
         </is>
       </c>
       <c r="C1385" t="n">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE416</t>
+          <t>BACHELORSDEGREE416</t>
         </is>
       </c>
       <c r="C1386" t="n">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE611</t>
+          <t>BACHELORSDEGREE611</t>
         </is>
       </c>
       <c r="C1389" t="n">
@@ -29623,7 +29623,7 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE628</t>
+          <t>MASTERSDEGREE628</t>
         </is>
       </c>
       <c r="C1391" t="n">
@@ -29644,7 +29644,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE221</t>
+          <t>MASTERSDEGREE221</t>
         </is>
       </c>
       <c r="C1392" t="n">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1115</t>
+          <t>BACHELORSDEGREE1115</t>
         </is>
       </c>
       <c r="C1393" t="n">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE422</t>
+          <t>BACHELORSDEGREE422</t>
         </is>
       </c>
       <c r="C1396" t="n">
@@ -29770,7 +29770,7 @@
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE019</t>
+          <t>BACHELORSDEGREE019</t>
         </is>
       </c>
       <c r="C1398" t="n">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE528</t>
+          <t>BACHELORSDEGREE528</t>
         </is>
       </c>
       <c r="C1399" t="n">
@@ -29812,7 +29812,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1218</t>
+          <t>BACHELORSDEGREE1218</t>
         </is>
       </c>
       <c r="C1400" t="n">
@@ -29833,7 +29833,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1526</t>
+          <t>MASTERSDEGREE1526</t>
         </is>
       </c>
       <c r="C1401" t="n">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE42</t>
+          <t>BACHELORSDEGREE42</t>
         </is>
       </c>
       <c r="C1402" t="n">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1227</t>
+          <t>BACHELORSDEGREE1227</t>
         </is>
       </c>
       <c r="C1403" t="n">
@@ -29917,7 +29917,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE921</t>
+          <t>BACHELORSDEGREE921</t>
         </is>
       </c>
       <c r="C1405" t="n">
@@ -29959,7 +29959,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1425</t>
+          <t>BACHELORSDEGREE1425</t>
         </is>
       </c>
       <c r="C1407" t="n">
@@ -30001,7 +30001,7 @@
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE230</t>
+          <t>MASTERSDEGREE230</t>
         </is>
       </c>
       <c r="C1409" t="n">
@@ -30022,7 +30022,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE426</t>
+          <t>BACHELORSDEGREE426</t>
         </is>
       </c>
       <c r="C1410" t="n">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE432</t>
+          <t>MASTERSDEGREE432</t>
         </is>
       </c>
       <c r="C1411" t="n">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE226</t>
+          <t>BACHELORSDEGREE226</t>
         </is>
       </c>
       <c r="C1413" t="n">
@@ -30127,7 +30127,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1624</t>
+          <t>BACHELORSDEGREE1624</t>
         </is>
       </c>
       <c r="C1415" t="n">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE730</t>
+          <t>BACHELORSDEGREE730</t>
         </is>
       </c>
       <c r="C1416" t="n">
@@ -30169,7 +30169,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1417</t>
+          <t>MASTERSDEGREE1417</t>
         </is>
       </c>
       <c r="C1417" t="n">
@@ -30211,7 +30211,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2227</t>
+          <t>MASTERSDEGREE2227</t>
         </is>
       </c>
       <c r="C1419" t="n">
@@ -30232,7 +30232,7 @@
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE325</t>
+          <t>BACHELORSDEGREE325</t>
         </is>
       </c>
       <c r="C1420" t="n">
@@ -30253,7 +30253,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE725</t>
+          <t>BACHELORSDEGREE725</t>
         </is>
       </c>
       <c r="C1421" t="n">
@@ -30295,7 +30295,7 @@
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE725</t>
+          <t>MASTERSDEGREE725</t>
         </is>
       </c>
       <c r="C1423" t="n">
@@ -30316,7 +30316,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2325</t>
+          <t>MASTERSDEGREE2325</t>
         </is>
       </c>
       <c r="C1424" t="n">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE328</t>
+          <t>MASTERSDEGREE328</t>
         </is>
       </c>
       <c r="C1425" t="n">
@@ -30358,7 +30358,7 @@
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE426</t>
+          <t>MASTERSDEGREE426</t>
         </is>
       </c>
       <c r="C1426" t="n">
@@ -30421,7 +30421,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1028</t>
+          <t>BACHELORSDEGREE1028</t>
         </is>
       </c>
       <c r="C1429" t="n">
@@ -30463,7 +30463,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2727</t>
+          <t>BACHELORSDEGREE2727</t>
         </is>
       </c>
       <c r="C1431" t="n">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE227</t>
+          <t>BACHELORSDEGREE227</t>
         </is>
       </c>
       <c r="C1432" t="n">
@@ -30547,7 +30547,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE721</t>
+          <t>BACHELORSDEGREE721</t>
         </is>
       </c>
       <c r="C1435" t="n">
@@ -30568,7 +30568,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1316</t>
+          <t>BACHELORSDEGREE1316</t>
         </is>
       </c>
       <c r="C1436" t="n">
@@ -30589,7 +30589,7 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1821</t>
+          <t>BACHELORSDEGREE1821</t>
         </is>
       </c>
       <c r="C1437" t="n">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE914</t>
+          <t>BACHELORSDEGREE914</t>
         </is>
       </c>
       <c r="C1438" t="n">
@@ -30631,7 +30631,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE322</t>
+          <t>BACHELORSDEGREE322</t>
         </is>
       </c>
       <c r="C1439" t="n">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE913</t>
+          <t>BACHELORSDEGREE913</t>
         </is>
       </c>
       <c r="C1441" t="n">
@@ -30694,7 +30694,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE319</t>
+          <t>BACHELORSDEGREE319</t>
         </is>
       </c>
       <c r="C1442" t="n">
@@ -30736,7 +30736,7 @@
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2428</t>
+          <t>BACHELORSDEGREE2428</t>
         </is>
       </c>
       <c r="C1444" t="n">
@@ -30757,7 +30757,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE422</t>
+          <t>MASTERSDEGREE422</t>
         </is>
       </c>
       <c r="C1445" t="n">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE621</t>
+          <t>BACHELORSDEGREE621</t>
         </is>
       </c>
       <c r="C1446" t="n">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE521</t>
+          <t>BACHELORSDEGREE521</t>
         </is>
       </c>
       <c r="C1447" t="n">
@@ -30841,7 +30841,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1524</t>
+          <t>MASTERSDEGREE1524</t>
         </is>
       </c>
       <c r="C1449" t="n">
@@ -30862,7 +30862,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1026</t>
+          <t>MASTERSDEGREE1026</t>
         </is>
       </c>
       <c r="C1450" t="n">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE021</t>
+          <t>BACHELORSDEGREE021</t>
         </is>
       </c>
       <c r="C1455" t="n">
@@ -30988,7 +30988,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE921</t>
+          <t>MASTERSDEGREE921</t>
         </is>
       </c>
       <c r="C1456" t="n">
@@ -31009,7 +31009,7 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1825</t>
+          <t>BACHELORSDEGREE1825</t>
         </is>
       </c>
       <c r="C1457" t="n">
@@ -31051,7 +31051,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1523</t>
+          <t>MASTERSDEGREE1523</t>
         </is>
       </c>
       <c r="C1459" t="n">
@@ -31093,7 +31093,7 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE321</t>
+          <t>BACHELORSDEGREE321</t>
         </is>
       </c>
       <c r="C1461" t="n">
@@ -31114,7 +31114,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE840</t>
+          <t>BACHELORSDEGREE840</t>
         </is>
       </c>
       <c r="C1462" t="n">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2230</t>
+          <t>BACHELORSDEGREE2230</t>
         </is>
       </c>
       <c r="C1464" t="n">
@@ -31219,7 +31219,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE917</t>
+          <t>MASTERSDEGREE917</t>
         </is>
       </c>
       <c r="C1467" t="n">
@@ -31240,7 +31240,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2021</t>
+          <t>MASTERSDEGREE2021</t>
         </is>
       </c>
       <c r="C1468" t="n">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE723</t>
+          <t>BACHELORSDEGREE723</t>
         </is>
       </c>
       <c r="C1469" t="n">
@@ -31282,7 +31282,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1521</t>
+          <t>MASTERSDEGREE1521</t>
         </is>
       </c>
       <c r="C1470" t="n">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE823</t>
+          <t>MASTERSDEGREE823</t>
         </is>
       </c>
       <c r="C1472" t="n">
@@ -31366,7 +31366,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1627</t>
+          <t>BACHELORSDEGREE1627</t>
         </is>
       </c>
       <c r="C1474" t="n">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2324</t>
+          <t>MASTERSDEGREE2324</t>
         </is>
       </c>
       <c r="C1476" t="n">
@@ -31450,7 +31450,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1416</t>
+          <t>BACHELORSDEGREE1416</t>
         </is>
       </c>
       <c r="C1478" t="n">
@@ -31513,7 +31513,7 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE925</t>
+          <t>MASTERSDEGREE925</t>
         </is>
       </c>
       <c r="C1481" t="n">
@@ -31534,7 +31534,7 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1322</t>
+          <t>BACHELORSDEGREE1322</t>
         </is>
       </c>
       <c r="C1482" t="n">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE922</t>
+          <t>BACHELORSDEGREE922</t>
         </is>
       </c>
       <c r="C1483" t="n">
@@ -31618,7 +31618,7 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2226</t>
+          <t>BACHELORSDEGREE2226</t>
         </is>
       </c>
       <c r="C1486" t="n">
@@ -31681,7 +31681,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE440</t>
+          <t>MASTERSDEGREE440</t>
         </is>
       </c>
       <c r="C1489" t="n">
@@ -31702,7 +31702,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE427</t>
+          <t>MASTERSDEGREE427</t>
         </is>
       </c>
       <c r="C1490" t="n">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE326</t>
+          <t>BACHELORSDEGREE326</t>
         </is>
       </c>
       <c r="C1491" t="n">
@@ -31870,7 +31870,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1927</t>
+          <t>BACHELORSDEGREE1927</t>
         </is>
       </c>
       <c r="C1498" t="n">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE3434</t>
+          <t>MASTERSDEGREE3434</t>
         </is>
       </c>
       <c r="C1499" t="n">
@@ -31933,7 +31933,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE235</t>
+          <t>MASTERSDEGREE235</t>
         </is>
       </c>
       <c r="C1501" t="n">
@@ -31954,7 +31954,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2425</t>
+          <t>BACHELORSDEGREE2425</t>
         </is>
       </c>
       <c r="C1502" t="n">
@@ -31975,7 +31975,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1519</t>
+          <t>BACHELORSDEGREE1519</t>
         </is>
       </c>
       <c r="C1503" t="n">
@@ -32038,7 +32038,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1116</t>
+          <t>BACHELORSDEGREE1116</t>
         </is>
       </c>
       <c r="C1506" t="n">
@@ -32080,7 +32080,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE923</t>
+          <t>BACHELORSDEGREE923</t>
         </is>
       </c>
       <c r="C1508" t="n">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE819</t>
+          <t>BACHELORSDEGREE819</t>
         </is>
       </c>
       <c r="C1509" t="n">
@@ -32122,7 +32122,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE838</t>
+          <t>MASTERSDEGREE838</t>
         </is>
       </c>
       <c r="C1510" t="n">
@@ -32164,7 +32164,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1930</t>
+          <t>MASTERSDEGREE1930</t>
         </is>
       </c>
       <c r="C1512" t="n">
@@ -32185,7 +32185,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE4040</t>
+          <t>MASTERSDEGREE4040</t>
         </is>
       </c>
       <c r="C1513" t="n">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE430</t>
+          <t>BACHELORSDEGREE430</t>
         </is>
       </c>
       <c r="C1514" t="n">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE730</t>
+          <t>MASTERSDEGREE730</t>
         </is>
       </c>
       <c r="C1515" t="n">
@@ -32311,7 +32311,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1823</t>
+          <t>MASTERSDEGREE1823</t>
         </is>
       </c>
       <c r="C1519" t="n">
@@ -32332,7 +32332,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE527</t>
+          <t>BACHELORSDEGREE527</t>
         </is>
       </c>
       <c r="C1520" t="n">
@@ -32353,7 +32353,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1724</t>
+          <t>BACHELORSDEGREE1724</t>
         </is>
       </c>
       <c r="C1521" t="n">
@@ -32374,7 +32374,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1723</t>
+          <t>BACHELORSDEGREE1723</t>
         </is>
       </c>
       <c r="C1522" t="n">
@@ -32416,7 +32416,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2035</t>
+          <t>MASTERSDEGREE2035</t>
         </is>
       </c>
       <c r="C1524" t="n">
@@ -32458,7 +32458,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE424</t>
+          <t>MASTERSDEGREE424</t>
         </is>
       </c>
       <c r="C1526" t="n">
@@ -32479,7 +32479,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1124</t>
+          <t>BACHELORSDEGREE1124</t>
         </is>
       </c>
       <c r="C1527" t="n">
@@ -32521,7 +32521,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1830</t>
+          <t>BACHELORSDEGREE1830</t>
         </is>
       </c>
       <c r="C1529" t="n">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1427</t>
+          <t>BACHELORSDEGREE1427</t>
         </is>
       </c>
       <c r="C1532" t="n">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1121</t>
+          <t>MASTERSDEGREE1121</t>
         </is>
       </c>
       <c r="C1533" t="n">
@@ -32626,7 +32626,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE032</t>
+          <t>MASTERSDEGREE032</t>
         </is>
       </c>
       <c r="C1534" t="n">
@@ -32668,7 +32668,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1720</t>
+          <t>MASTERSDEGREE1720</t>
         </is>
       </c>
       <c r="C1536" t="n">
@@ -32689,7 +32689,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE622</t>
+          <t>MASTERSDEGREE622</t>
         </is>
       </c>
       <c r="C1537" t="n">
@@ -32731,7 +32731,7 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1213</t>
+          <t>BACHELORSDEGREE1213</t>
         </is>
       </c>
       <c r="C1539" t="n">
@@ -32752,7 +32752,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2538</t>
+          <t>BACHELORSDEGREE2538</t>
         </is>
       </c>
       <c r="C1540" t="n">
@@ -32836,7 +32836,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2126</t>
+          <t>BACHELORSDEGREE2126</t>
         </is>
       </c>
       <c r="C1544" t="n">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE626</t>
+          <t>MASTERSDEGREE626</t>
         </is>
       </c>
       <c r="C1545" t="n">
@@ -32899,7 +32899,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE821</t>
+          <t>BACHELORSDEGREE821</t>
         </is>
       </c>
       <c r="C1547" t="n">
@@ -32941,7 +32941,7 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1820</t>
+          <t>MASTERSDEGREE1820</t>
         </is>
       </c>
       <c r="C1549" t="n">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1021</t>
+          <t>MASTERSDEGREE1021</t>
         </is>
       </c>
       <c r="C1550" t="n">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2122</t>
+          <t>MASTERSDEGREE2122</t>
         </is>
       </c>
       <c r="C1551" t="n">
@@ -33004,7 +33004,7 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE526</t>
+          <t>BACHELORSDEGREE526</t>
         </is>
       </c>
       <c r="C1552" t="n">
@@ -33025,7 +33025,7 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1240</t>
+          <t>BACHELORSDEGREE1240</t>
         </is>
       </c>
       <c r="C1553" t="n">
@@ -33067,7 +33067,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2626</t>
+          <t>BACHELORSDEGREE2626</t>
         </is>
       </c>
       <c r="C1555" t="n">
@@ -33088,7 +33088,7 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1620</t>
+          <t>BACHELORSDEGREE1620</t>
         </is>
       </c>
       <c r="C1556" t="n">
@@ -33130,7 +33130,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE423</t>
+          <t>BACHELORSDEGREE423</t>
         </is>
       </c>
       <c r="C1558" t="n">
@@ -33151,7 +33151,7 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1230</t>
+          <t>BACHELORSDEGREE1230</t>
         </is>
       </c>
       <c r="C1559" t="n">
@@ -33172,7 +33172,7 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE723</t>
+          <t>MASTERSDEGREE723</t>
         </is>
       </c>
       <c r="C1560" t="n">
@@ -33214,7 +33214,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1623</t>
+          <t>MASTERSDEGREE1623</t>
         </is>
       </c>
       <c r="C1562" t="n">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1921</t>
+          <t>BACHELORSDEGREE1921</t>
         </is>
       </c>
       <c r="C1563" t="n">
@@ -33256,7 +33256,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1033</t>
+          <t>MASTERSDEGREE1033</t>
         </is>
       </c>
       <c r="C1564" t="n">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE625</t>
+          <t>BACHELORSDEGREE625</t>
         </is>
       </c>
       <c r="C1565" t="n">
@@ -33319,7 +33319,7 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2022</t>
+          <t>BACHELORSDEGREE2022</t>
         </is>
       </c>
       <c r="C1567" t="n">
@@ -33361,7 +33361,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE823</t>
+          <t>BACHELORSDEGREE823</t>
         </is>
       </c>
       <c r="C1569" t="n">
@@ -33382,7 +33382,7 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1024</t>
+          <t>BACHELORSDEGREE1024</t>
         </is>
       </c>
       <c r="C1570" t="n">
@@ -33424,7 +33424,7 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2121</t>
+          <t>BACHELORSDEGREE2121</t>
         </is>
       </c>
       <c r="C1572" t="n">
@@ -33445,7 +33445,7 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1128</t>
+          <t>MASTERSDEGREE1128</t>
         </is>
       </c>
       <c r="C1573" t="n">
@@ -33466,7 +33466,7 @@
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2130</t>
+          <t>BACHELORSDEGREE2130</t>
         </is>
       </c>
       <c r="C1574" t="n">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1135</t>
+          <t>BACHELORSDEGREE1135</t>
         </is>
       </c>
       <c r="C1575" t="n">
@@ -33508,7 +33508,7 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE027</t>
+          <t>BACHELORSDEGREE027</t>
         </is>
       </c>
       <c r="C1576" t="n">
@@ -33571,7 +33571,7 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1617</t>
+          <t>MASTERSDEGREE1617</t>
         </is>
       </c>
       <c r="C1579" t="n">
@@ -33592,7 +33592,7 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE2630</t>
+          <t>MASTERSDEGREE2630</t>
         </is>
       </c>
       <c r="C1580" t="n">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1225</t>
+          <t>MASTERSDEGREE1225</t>
         </is>
       </c>
       <c r="C1581" t="n">
@@ -33655,7 +33655,7 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1618</t>
+          <t>MASTERSDEGREE1618</t>
         </is>
       </c>
       <c r="C1583" t="n">
@@ -33676,7 +33676,7 @@
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1130</t>
+          <t>MASTERSDEGREE1130</t>
         </is>
       </c>
       <c r="C1584" t="n">
@@ -33697,7 +33697,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE825</t>
+          <t>MASTERSDEGREE825</t>
         </is>
       </c>
       <c r="C1585" t="n">
@@ -33739,7 +33739,7 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE327</t>
+          <t>MASTERSDEGREE327</t>
         </is>
       </c>
       <c r="C1587" t="n">
@@ -33781,7 +33781,7 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE924</t>
+          <t>BACHELORSDEGREE924</t>
         </is>
       </c>
       <c r="C1589" t="n">
@@ -33802,7 +33802,7 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2228</t>
+          <t>BACHELORSDEGREE2228</t>
         </is>
       </c>
       <c r="C1590" t="n">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1113</t>
+          <t>BACHELORSDEGREE1113</t>
         </is>
       </c>
       <c r="C1591" t="n">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE835</t>
+          <t>MASTERSDEGREE835</t>
         </is>
       </c>
       <c r="C1593" t="n">
@@ -33907,7 +33907,7 @@
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2029</t>
+          <t>BACHELORSDEGREE2029</t>
         </is>
       </c>
       <c r="C1595" t="n">
@@ -33928,7 +33928,7 @@
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE429</t>
+          <t>MASTERSDEGREE429</t>
         </is>
       </c>
       <c r="C1596" t="n">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1118</t>
+          <t>BACHELORSDEGREE1118</t>
         </is>
       </c>
       <c r="C1597" t="n">
@@ -33970,7 +33970,7 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE130</t>
+          <t>BACHELORSDEGREE130</t>
         </is>
       </c>
       <c r="C1598" t="n">
@@ -33991,7 +33991,7 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE432</t>
+          <t>BACHELORSDEGREE432</t>
         </is>
       </c>
       <c r="C1599" t="n">
@@ -34012,7 +34012,7 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE026</t>
+          <t>MASTERSDEGREE026</t>
         </is>
       </c>
       <c r="C1600" t="n">
@@ -34033,7 +34033,7 @@
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1328</t>
+          <t>BACHELORSDEGREE1328</t>
         </is>
       </c>
       <c r="C1601" t="n">
@@ -34054,7 +34054,7 @@
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1123</t>
+          <t>BACHELORSDEGREE1123</t>
         </is>
       </c>
       <c r="C1602" t="n">
@@ -34075,7 +34075,7 @@
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2235</t>
+          <t>BACHELORSDEGREE2235</t>
         </is>
       </c>
       <c r="C1603" t="n">
@@ -34096,7 +34096,7 @@
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1925</t>
+          <t>BACHELORSDEGREE1925</t>
         </is>
       </c>
       <c r="C1604" t="n">
@@ -34117,7 +34117,7 @@
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE2223</t>
+          <t>BACHELORSDEGREE2223</t>
         </is>
       </c>
       <c r="C1605" t="n">
@@ -34138,7 +34138,7 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE1617</t>
+          <t>BACHELORSDEGREE1617</t>
         </is>
       </c>
       <c r="C1606" t="n">
@@ -34159,7 +34159,7 @@
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE935</t>
+          <t>BACHELORSDEGREE935</t>
         </is>
       </c>
       <c r="C1607" t="n">
@@ -34201,7 +34201,7 @@
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MASTER'SDEGREE1125</t>
+          <t>MASTERSDEGREE1125</t>
         </is>
       </c>
       <c r="C1609" t="n">
@@ -34222,7 +34222,7 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE930</t>
+          <t>BACHELORSDEGREE930</t>
         </is>
       </c>
       <c r="C1610" t="n">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>BACHELOR'SDEGREE623</t>
+          <t>BACHELORSDEGREE623</t>
         </is>
       </c>
       <c r="C1615" t="n">
